--- a/协同过滤推荐系统.xlsx
+++ b/协同过滤推荐系统.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="1820" windowWidth="21300" windowHeight="12120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1820" yWindow="2280" windowWidth="21300" windowHeight="12120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>Java语言入门</t>
-  </si>
-  <si>
-    <t>面向对象基础</t>
-  </si>
-  <si>
     <t>Struts开发框架</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>课程评价(1-5分)</t>
+  </si>
+  <si>
+    <t>Java编程</t>
+  </si>
+  <si>
+    <t>面向对象思想</t>
   </si>
 </sst>
 </file>
@@ -96,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +115,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -180,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,16 +494,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -502,7 +510,7 @@
     <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -512,27 +520,31 @@
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2">
         <v>2</v>
@@ -543,9 +555,11 @@
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2">
@@ -557,11 +571,17 @@
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.67</v>
+      </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -571,7 +591,7 @@
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -582,12 +602,14 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -603,7 +625,7 @@
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
@@ -619,7 +641,7 @@
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -646,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -661,24 +683,24 @@
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="8">
@@ -694,7 +716,7 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8">
         <v>3</v>
@@ -712,7 +734,7 @@
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
